--- a/genotypic-data/allele-calls-germplasm-by-marker.xlsx
+++ b/genotypic-data/allele-calls-germplasm-by-marker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\genotypic-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA5BC5-9E78-4E74-9AA3-47272AA35BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575C709-8F5B-434E-8129-817433FB814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="ATTRIBUTES" sheetId="6" r:id="rId3"/>
     <sheet name="COLLABORATORS" sheetId="5" r:id="rId4"/>
     <sheet name="LOCATION" sheetId="4" r:id="rId5"/>
-    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId6"/>
+    <sheet name="TYPES" sheetId="7" r:id="rId6"/>
+    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -465,7 +466,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -495,19 +496,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -517,12 +513,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,6 +521,20 @@
     <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -596,13 +600,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -698,13 +695,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -745,12 +735,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:C22" xr:uid="{C82FB4AE-F346-4BB9-8666-4FFBF429A944}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,18 +769,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:I2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{D436E300-DBD9-48A7-96C1-6BEF5EF82869}" name="Contributor role" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{614AAE99-1D16-40C6-878F-52E25957F2A8}" name="Contributor ID" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{D436E300-DBD9-48A7-96C1-6BEF5EF82869}" name="Contributor role" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{614AAE99-1D16-40C6-878F-52E25957F2A8}" name="Contributor ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,6 +802,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D32BC50C-9D36-4910-BCA1-084864EC6063}" name="Table10" displayName="Table10" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{D32BC50C-9D36-4910-BCA1-084864EC6063}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{487D3AFF-32AC-4366-AACC-8C7DF25F9DF0}" name="ValidTypes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K11" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lines/Markers"/>
@@ -1118,7 +1118,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1127,7 +1127,7 @@
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1217,102 +1217,102 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
@@ -1326,18 +1326,18 @@
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1358,14 +1358,14 @@
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1401,13 +1401,13 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1423,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4B024-EABF-4FD3-9AD9-676301697CED}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -1446,40 +1446,24 @@
       <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{46EB9FD0-BF46-4148-9328-13481A736B65}">
-      <formula1>$H$2:$H$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46EB9FD0-BF46-4148-9328-13481A736B65}">
+          <x14:formula1>
+            <xm:f>TYPES!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1509,10 +1493,10 @@
       <c r="B1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1527,7 +1511,7 @@
       <c r="H1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1538,10 +1522,10 @@
       <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1610,6 +1594,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97E7ED-9929-4D95-B51D-6C5F5F1D89E9}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
